--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L454"/>
+  <dimension ref="A1:L456"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>34.352118088501584</v>
+        <v>34.35215833</v>
       </c>
       <c r="C3" t="str">
-        <v>134.04854441812034</v>
+        <v>134.0481344</v>
       </c>
       <c r="D3" t="str">
         <v>ＪＲホテルクレメント高松</v>
@@ -673,10 +673,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>34.3390062761092</v>
+        <v>34.33888667</v>
       </c>
       <c r="C8" t="str">
-        <v>134.05271096232178</v>
+        <v>134.0525983</v>
       </c>
       <c r="D8" t="str">
         <v>ことでん瓦町駅</v>
@@ -1015,10 +1015,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>34.3465812441697</v>
+        <v>34.34658782535925</v>
       </c>
       <c r="C17" t="str">
-        <v>134.0482360558044</v>
+        <v>134.04822588764029</v>
       </c>
       <c r="D17" t="str">
         <v>東横イン高松兵庫町</v>
@@ -1091,10 +1091,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>34.34548980642958</v>
+        <v>34.34547077654665</v>
       </c>
       <c r="C19" t="str">
-        <v>134.048696509654</v>
+        <v>134.0487000294317</v>
       </c>
       <c r="D19" t="str">
         <v>リーガホテルゼスト高松</v>
@@ -1135,7 +1135,7 @@
         <v>134.1034865262297</v>
       </c>
       <c r="D20" t="str">
-        <v>株式会社ユーミック</v>
+        <v>株式会社　ユーミック</v>
       </c>
       <c r="E20" t="str">
         <v>高松市新田町甲91-1</v>
@@ -1395,13 +1395,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>34.269552926069196</v>
+        <v>34.26957430085608</v>
       </c>
       <c r="C27" t="str">
-        <v>134.12749305897034</v>
+        <v>134.12750015522522</v>
       </c>
       <c r="D27" t="str">
-        <v>ジャパンスイミングスクール　三木校</v>
+        <v>ジャパンスイミングスクール三木校</v>
       </c>
       <c r="E27" t="str">
         <v>木田郡三木町田中109-1</v>
@@ -1439,7 +1439,7 @@
         <v>134.0247894</v>
       </c>
       <c r="D28" t="str">
-        <v>ジャパンスイミングスクール　高松校</v>
+        <v>ジャパンスイミングスクール高松校</v>
       </c>
       <c r="E28" t="str">
         <v>高松市新北町28-12</v>
@@ -1471,10 +1471,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>34.31289304824659</v>
+        <v>34.31286889</v>
       </c>
       <c r="C29" t="str">
-        <v>134.0739457596565</v>
+        <v>134.0738975</v>
       </c>
       <c r="D29" t="str">
         <v>瀬戸内スイミングスクール木太校</v>
@@ -1781,7 +1781,7 @@
         <v>134.0667317</v>
       </c>
       <c r="D37" t="str">
-        <v>株式会社サニクリーン四国高松支店</v>
+        <v>株式会社　サニクリーン四国高松支店</v>
       </c>
       <c r="E37" t="str">
         <v>高松市上林町500-3</v>
@@ -3561,16 +3561,16 @@
         <v>85</v>
       </c>
       <c r="B84" t="str">
-        <v>34.27369117872483</v>
+        <v>34.27421231</v>
       </c>
       <c r="C84" t="str">
-        <v>134.10511666568794</v>
+        <v>134.10479837</v>
       </c>
       <c r="D84" t="str">
         <v>高松市十河コミュニティセンター</v>
       </c>
       <c r="E84" t="str">
-        <v>高松市十川西町579-1</v>
+        <v>高松市十川西町299-1</v>
       </c>
       <c r="F84" t="str">
         <v>正面右側</v>
@@ -9157,7 +9157,7 @@
         <v>安原小学校跡施設</v>
       </c>
       <c r="E231" t="str">
-        <v>高松市塩江町安原下第２号1684</v>
+        <v>高松市塩江町安原下第2号1684</v>
       </c>
       <c r="F231" t="str">
         <v>校舎南側</v>
@@ -10858,10 +10858,10 @@
         <v>293</v>
       </c>
       <c r="B276" t="str">
-        <v>34.2222637951904</v>
+        <v>34.22225536396709</v>
       </c>
       <c r="C276" t="str">
-        <v>133.95293753098974</v>
+        <v>133.9529355954793</v>
       </c>
       <c r="D276" t="str">
         <v>株式会社リバートップ</v>
@@ -10934,10 +10934,10 @@
         <v>295</v>
       </c>
       <c r="B278" t="str">
-        <v>34.22347666150735</v>
+        <v>34.22347011724085</v>
       </c>
       <c r="C278" t="str">
-        <v>133.95085140739462</v>
+        <v>133.95085079420284</v>
       </c>
       <c r="D278" t="str">
         <v>医療法人社団　綾上歯科診療所</v>
@@ -10981,7 +10981,7 @@
         <v>滝宮天満宮</v>
       </c>
       <c r="E279" t="str">
-        <v>綾歌郡綾川町滝宮１３１４</v>
+        <v>綾歌郡綾川町滝宮1314</v>
       </c>
       <c r="F279" t="str">
         <v>神社お守授与所</v>
@@ -11048,13 +11048,13 @@
         <v>298</v>
       </c>
       <c r="B281" t="str">
-        <v>34.2378989265319</v>
+        <v>34.23791453215537</v>
       </c>
       <c r="C281" t="str">
-        <v>133.90418142832442</v>
+        <v>133.9041305515562</v>
       </c>
       <c r="D281" t="str">
-        <v>有限会社綾南交通</v>
+        <v>有限会社　綾南交通</v>
       </c>
       <c r="E281" t="str">
         <v>綾歌郡綾川町羽床下2312-1</v>
@@ -11390,10 +11390,10 @@
         <v>307</v>
       </c>
       <c r="B290" t="str">
-        <v>34.26233118861677</v>
+        <v>34.26226543664892</v>
       </c>
       <c r="C290" t="str">
-        <v>134.13501089084997</v>
+        <v>134.13502966954155</v>
       </c>
       <c r="D290" t="str">
         <v>ダイキ（株）ホームセンターダイキ三木店</v>
@@ -11890,7 +11890,7 @@
         <v>134.1383598566478</v>
       </c>
       <c r="D303" t="str">
-        <v>三木町老人福祉会館　あけぼの荘</v>
+        <v>三木町老人福祉会館あけぼの荘</v>
       </c>
       <c r="E303" t="str">
         <v>木田郡三木町大字井上1966番地5</v>
@@ -11922,10 +11922,10 @@
         <v>321</v>
       </c>
       <c r="B304" t="str">
-        <v>34.25338372199022</v>
+        <v>34.25337722125633</v>
       </c>
       <c r="C304" t="str">
-        <v>134.13503995595772</v>
+        <v>134.13495318962953</v>
       </c>
       <c r="D304" t="str">
         <v>三木町健康生きがい中核施設　サンサン館みき</v>
@@ -12226,10 +12226,10 @@
         <v>329</v>
       </c>
       <c r="B312" t="str">
-        <v>34.253619280717956</v>
+        <v>34.25362670321552</v>
       </c>
       <c r="C312" t="str">
-        <v>134.1344551571326</v>
+        <v>134.1344616780221</v>
       </c>
       <c r="D312" t="str">
         <v>三木町地域交流センター</v>
@@ -12270,7 +12270,7 @@
         <v>134.0335789</v>
       </c>
       <c r="D313" t="str">
-        <v>株式会社幸燿</v>
+        <v>株式会社　幸燿</v>
       </c>
       <c r="E313" t="str">
         <v>高松市田村町948番地</v>
@@ -12311,7 +12311,7 @@
         <v>市民交流プラザIKODE瓦町</v>
       </c>
       <c r="E314" t="str">
-        <v>高松市常磐町一丁目3-1 8階</v>
+        <v>高松市常磐町一丁目3-1  8階</v>
       </c>
       <c r="F314" t="str">
         <v>受付カウンターの北側</v>
@@ -13594,10 +13594,10 @@
         <v>367</v>
       </c>
       <c r="B348" t="str">
-        <v>34.232038261784936</v>
+        <v>34.23200004604571</v>
       </c>
       <c r="C348" t="str">
-        <v>133.93524102974516</v>
+        <v>133.93545288582584</v>
       </c>
       <c r="D348" t="str">
         <v>香川県農業試験場</v>
@@ -13708,10 +13708,10 @@
         <v>370</v>
       </c>
       <c r="B351" t="str">
-        <v>34.268381100118916</v>
+        <v>34.26837779599322</v>
       </c>
       <c r="C351" t="str">
-        <v>134.13650523931346</v>
+        <v>134.13651705797292</v>
       </c>
       <c r="D351" t="str">
         <v>JA香川県ふれあいセンター三木</v>
@@ -13746,10 +13746,10 @@
         <v>371</v>
       </c>
       <c r="B352" t="str">
-        <v>34.24458564924481</v>
+        <v>34.24460451045488</v>
       </c>
       <c r="C352" t="str">
-        <v>134.1419121183264</v>
+        <v>134.141846520493</v>
       </c>
       <c r="D352" t="str">
         <v>高齢者複合施設ヌーベル三木</v>
@@ -13784,13 +13784,13 @@
         <v>372</v>
       </c>
       <c r="B353" t="str">
-        <v>34.2718199134094</v>
+        <v>34.27181991340943</v>
       </c>
       <c r="C353" t="str">
-        <v>134.12574356094302</v>
+        <v>134.12571465158192</v>
       </c>
       <c r="D353" t="str">
-        <v>株式会社たまや三木店</v>
+        <v>株式会社　たまや三木店</v>
       </c>
       <c r="E353" t="str">
         <v>木田郡三木町大字池戸2839-1</v>
@@ -13822,10 +13822,10 @@
         <v>373</v>
       </c>
       <c r="B354" t="str">
-        <v>34.27389027235709</v>
+        <v>34.274165</v>
       </c>
       <c r="C354" t="str">
-        <v>134.1446094324006</v>
+        <v>134.144548</v>
       </c>
       <c r="D354" t="str">
         <v>特別養護老人ホーム白山山荘</v>
@@ -13898,10 +13898,10 @@
         <v>375</v>
       </c>
       <c r="B356" t="str">
-        <v>34.26296720180966</v>
+        <v>34.262932891647026</v>
       </c>
       <c r="C356" t="str">
-        <v>134.13654897213286</v>
+        <v>134.1365841374233</v>
       </c>
       <c r="D356" t="str">
         <v>ダイナム三木店</v>
@@ -13974,13 +13974,13 @@
         <v>377</v>
       </c>
       <c r="B358" t="str">
-        <v>34.26961018034309</v>
+        <v>34.26967394630897</v>
       </c>
       <c r="C358" t="str">
-        <v>134.1318834386529</v>
+        <v>134.13190022697535</v>
       </c>
       <c r="D358" t="str">
-        <v>高松信用金庫三木支店</v>
+        <v>高松信用金庫　三木支店</v>
       </c>
       <c r="E358" t="str">
         <v>木田郡三木町大字平木22-2</v>
@@ -14050,10 +14050,10 @@
         <v>379</v>
       </c>
       <c r="B360" t="str">
-        <v>34.28755795556759</v>
+        <v>34.287616590041225</v>
       </c>
       <c r="C360" t="str">
-        <v>134.11993278188004</v>
+        <v>134.1199394350458</v>
       </c>
       <c r="D360" t="str">
         <v>グループホームれんげハウス</v>
@@ -14208,7 +14208,7 @@
         <v>133.971307</v>
       </c>
       <c r="D364" t="str">
-        <v>香川トヨタ自動車株式会社ルート32中央店</v>
+        <v>香川トヨタ自動車株式会社　ルート32中央店</v>
       </c>
       <c r="E364" t="str">
         <v>高松市国分寺町福家甲1129-2</v>
@@ -14807,19 +14807,19 @@
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="B380" t="str">
-        <v>34.34473382482092</v>
+        <v>34.23822400000026</v>
       </c>
       <c r="C380" t="str">
-        <v>134.05037451146865</v>
+        <v>134.145161845889</v>
       </c>
       <c r="D380" t="str">
-        <v>高松丸亀町商店街振興組合</v>
+        <v>三木町総合運動公園</v>
       </c>
       <c r="E380" t="str">
-        <v>高松市丸亀町13-3</v>
+        <v>木田郡三木町大字上高岡2544-3</v>
       </c>
       <c r="F380" t="str">
         <v/>
@@ -14845,19 +14845,19 @@
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B381" t="str">
-        <v>34.23822400000026</v>
+        <v>34.350298</v>
       </c>
       <c r="C381" t="str">
-        <v>134.145161845889</v>
+        <v>134.063999</v>
       </c>
       <c r="D381" t="str">
-        <v>三木町総合運動公園</v>
+        <v>社会保険診療報酬支払基金香川支部</v>
       </c>
       <c r="E381" t="str">
-        <v>木田郡三木町大字上高岡2544-3</v>
+        <v>髙松市朝日町二丁目17番3号</v>
       </c>
       <c r="F381" t="str">
         <v/>
@@ -14883,19 +14883,19 @@
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B382" t="str">
-        <v>34.350298</v>
+        <v>34.338042</v>
       </c>
       <c r="C382" t="str">
-        <v>134.063999</v>
+        <v>134.047475</v>
       </c>
       <c r="D382" t="str">
-        <v>社会保険診療報酬支払基金香川支部</v>
+        <v>損保ジャパン日本興亜株式会社</v>
       </c>
       <c r="E382" t="str">
-        <v>髙松市朝日町二丁目17番3号</v>
+        <v>高松市中新町2-8</v>
       </c>
       <c r="F382" t="str">
         <v/>
@@ -14921,19 +14921,19 @@
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B383" t="str">
-        <v>34.338042</v>
+        <v>34.257298</v>
       </c>
       <c r="C383" t="str">
-        <v>134.047475</v>
+        <v>133.922363</v>
       </c>
       <c r="D383" t="str">
-        <v>損保ジャパン日本興亜株式会社</v>
+        <v>大陽工機株式会社</v>
       </c>
       <c r="E383" t="str">
-        <v>高松市中新町2-8</v>
+        <v>綾歌郡綾川町滝宮2457-1</v>
       </c>
       <c r="F383" t="str">
         <v/>
@@ -14959,19 +14959,19 @@
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B384" t="str">
-        <v>34.257298</v>
+        <v>34.24104641571496</v>
       </c>
       <c r="C384" t="str">
-        <v>133.922363</v>
+        <v>134.15666138907056</v>
       </c>
       <c r="D384" t="str">
-        <v>大陽工機株式会社</v>
+        <v>特別養護老人ホームみき山荘</v>
       </c>
       <c r="E384" t="str">
-        <v>綾歌郡綾川町滝宮2457-1</v>
+        <v>木田郡三木町井戸38番地1</v>
       </c>
       <c r="F384" t="str">
         <v/>
@@ -14997,19 +14997,19 @@
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B385" t="str">
-        <v>34.24104641571496</v>
+        <v>34.3449110676851</v>
       </c>
       <c r="C385" t="str">
-        <v>134.15666138907056</v>
+        <v>134.04642254094728</v>
       </c>
       <c r="D385" t="str">
-        <v>特別養護老人ホームみき山荘</v>
+        <v>株式会社アルファリビング高松紺屋町</v>
       </c>
       <c r="E385" t="str">
-        <v>木田郡三木町井戸38番地1</v>
+        <v>高松市紺屋町5-3　あなぶきメディカルケア</v>
       </c>
       <c r="F385" t="str">
         <v/>
@@ -15035,19 +15035,19 @@
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B386" t="str">
-        <v>34.3449110676851</v>
+        <v>34.223429</v>
       </c>
       <c r="C386" t="str">
-        <v>134.04642254094728</v>
+        <v>134.017527</v>
       </c>
       <c r="D386" t="str">
-        <v>株式会社アルファリビング高松紺屋町</v>
+        <v>香川県園芸総合センター</v>
       </c>
       <c r="E386" t="str">
-        <v>高松市紺屋町5-3　あなぶきメディカルケア</v>
+        <v>高松市香南町岡1164-1</v>
       </c>
       <c r="F386" t="str">
         <v/>
@@ -15073,19 +15073,19 @@
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B387" t="str">
-        <v>34.223429</v>
+        <v>34.34473228330016</v>
       </c>
       <c r="C387" t="str">
-        <v>134.017527</v>
+        <v>134.05040469940622</v>
       </c>
       <c r="D387" t="str">
-        <v>香川県園芸総合センター</v>
+        <v>高松丸亀町商店街振興組合</v>
       </c>
       <c r="E387" t="str">
-        <v>高松市香南町岡1164-1</v>
+        <v>高松市丸亀町13-2</v>
       </c>
       <c r="F387" t="str">
         <v/>
@@ -15190,10 +15190,10 @@
         <v>465</v>
       </c>
       <c r="B390" t="str">
-        <v>34.255984</v>
+        <v>34.256011313893836</v>
       </c>
       <c r="C390" t="str">
-        <v>134.029103</v>
+        <v>134.02912778482232</v>
       </c>
       <c r="D390" t="str">
         <v>社会福祉法人高松市社会福祉協議会香川支所</v>
@@ -15228,10 +15228,10 @@
         <v>466</v>
       </c>
       <c r="B391" t="str">
-        <v>34.23903265584998</v>
+        <v>34.2388868866701</v>
       </c>
       <c r="C391" t="str">
-        <v>134.00731483903485</v>
+        <v>134.00739281150248</v>
       </c>
       <c r="D391" t="str">
         <v>社会福祉法人高松市社会福祉協議会香南支所</v>
@@ -15275,7 +15275,7 @@
         <v>社会福祉法人高松市社会福祉協議会国分寺支所</v>
       </c>
       <c r="E392" t="str">
-        <v>高松市国分寺町新居1150番地1</v>
+        <v>高松市国分寺町新居1151151番地１</v>
       </c>
       <c r="F392" t="str">
         <v/>
@@ -15532,10 +15532,10 @@
         <v>477</v>
       </c>
       <c r="B399" t="str">
-        <v>34.241324897387955</v>
+        <v>34.24136024871851</v>
       </c>
       <c r="C399" t="str">
-        <v>134.03398877435137</v>
+        <v>134.0340801343434</v>
       </c>
       <c r="D399" t="str">
         <v>高松市香川総合センター</v>
@@ -15570,10 +15570,10 @@
         <v>478</v>
       </c>
       <c r="B400" t="str">
-        <v>34.29722272733717</v>
+        <v>34.29719811210933</v>
       </c>
       <c r="C400" t="str">
-        <v>133.96051031615661</v>
+        <v>133.96043374717</v>
       </c>
       <c r="D400" t="str">
         <v>高松市国分寺総合センター</v>
@@ -15608,10 +15608,10 @@
         <v>479</v>
       </c>
       <c r="B401" t="str">
-        <v>34.33564104969324</v>
+        <v>34.33590</v>
       </c>
       <c r="C401" t="str">
-        <v>134.07824501472453</v>
+        <v>134.07822</v>
       </c>
       <c r="D401" t="str">
         <v>高松市木太北部会館</v>
@@ -15646,10 +15646,10 @@
         <v>480</v>
       </c>
       <c r="B402" t="str">
-        <v>34.22254043111933</v>
+        <v>34.22249633501997</v>
       </c>
       <c r="C402" t="str">
-        <v>134.019154964169</v>
+        <v>134.01918741502203</v>
       </c>
       <c r="D402" t="str">
         <v>香南アグリーム</v>
@@ -15684,10 +15684,10 @@
         <v>481</v>
       </c>
       <c r="B403" t="str">
-        <v>34.35670446849855</v>
+        <v>34.35653</v>
       </c>
       <c r="C403" t="str">
-        <v>134.0040138067593</v>
+        <v>134.00379</v>
       </c>
       <c r="D403" t="str">
         <v>香東川浄化センター</v>
@@ -15722,10 +15722,10 @@
         <v>482</v>
       </c>
       <c r="B404" t="str">
-        <v>34.35267859068442</v>
+        <v>34.35267865893918</v>
       </c>
       <c r="C404" t="str">
-        <v>134.12147162149915</v>
+        <v>134.1214837471702</v>
       </c>
       <c r="D404" t="str">
         <v>牟礼浄化苑</v>
@@ -15912,10 +15912,10 @@
         <v>487</v>
       </c>
       <c r="B409" t="str">
-        <v>34.34617806562413</v>
+        <v>34.34619553245487</v>
       </c>
       <c r="C409" t="str">
-        <v>134.0851904434819</v>
+        <v>134.0852010959269</v>
       </c>
       <c r="D409" t="str">
         <v>銀星自動車学校</v>
@@ -16026,10 +16026,10 @@
         <v>492</v>
       </c>
       <c r="B412" t="str">
-        <v>34.30043583441376</v>
+        <v>34.30044119313848</v>
       </c>
       <c r="C412" t="str">
-        <v>134.06145156352295</v>
+        <v>134.06143532367116</v>
       </c>
       <c r="D412" t="str">
         <v>フィンズスイミングスクール多肥</v>
@@ -16482,10 +16482,10 @@
         <v>506</v>
       </c>
       <c r="B424" t="str">
-        <v>34.342901</v>
+        <v>34.34279810032494</v>
       </c>
       <c r="C424" t="str">
-        <v>134.034859</v>
+        <v>134.03482116751337</v>
       </c>
       <c r="D424" t="str">
         <v>かがやきの季　昭和町</v>
@@ -16988,7 +16988,7 @@
         <v>高松市川部町418</v>
       </c>
       <c r="F437" t="str">
-        <v>体育館</v>
+        <v/>
       </c>
       <c r="G437" t="str">
         <v/>
@@ -17090,10 +17090,10 @@
         <v>522</v>
       </c>
       <c r="B440" t="str">
-        <v>34.27719</v>
+        <v>34.277027543067376</v>
       </c>
       <c r="C440" t="str">
-        <v>134.08566</v>
+        <v>134.0856220200468</v>
       </c>
       <c r="D440" t="str">
         <v>高松市山田総合センター</v>
@@ -17128,10 +17128,10 @@
         <v>523</v>
       </c>
       <c r="B441" t="str">
-        <v>34.3410715561231</v>
+        <v>34.34124</v>
       </c>
       <c r="C441" t="str">
-        <v>134.14019318387153</v>
+        <v>134.14021</v>
       </c>
       <c r="D441" t="str">
         <v>田井保育所</v>
@@ -17166,10 +17166,10 @@
         <v>524</v>
       </c>
       <c r="B442" t="str">
-        <v>34.276756574935405</v>
+        <v>34.28727</v>
       </c>
       <c r="C442" t="str">
-        <v>134.09162787246794</v>
+        <v>134.09151</v>
       </c>
       <c r="D442" t="str">
         <v>川島こども園</v>
@@ -17280,10 +17280,10 @@
         <v>527</v>
       </c>
       <c r="B445" t="str">
-        <v>34.35982677554394</v>
+        <v>34.36006</v>
       </c>
       <c r="C445" t="str">
-        <v>134.0652182755888</v>
+        <v>134.06504</v>
       </c>
       <c r="D445" t="str">
         <v>高松市朝日新町学校給食センター</v>
@@ -17356,10 +17356,10 @@
         <v>529</v>
       </c>
       <c r="B447" t="str">
-        <v>34.288877289118716</v>
+        <v>34.288941065982144</v>
       </c>
       <c r="C447" t="str">
-        <v>134.02127179466117</v>
+        <v>134.0212363832017</v>
       </c>
       <c r="D447" t="str">
         <v>株式会社　塵芥センター</v>
@@ -17369,6 +17369,24 @@
       </c>
       <c r="F447" t="str">
         <v>本社玄関</v>
+      </c>
+      <c r="G447" t="str">
+        <v>087-886-3040</v>
+      </c>
+      <c r="H447" t="str">
+        <v>月火水木金土日</v>
+      </c>
+      <c r="I447" t="str">
+        <v>7:00</v>
+      </c>
+      <c r="J447" t="str">
+        <v>1700</v>
+      </c>
+      <c r="K447" t="str">
+        <v/>
+      </c>
+      <c r="L447" t="str">
+        <v/>
       </c>
     </row>
     <row r="448">
@@ -17376,10 +17394,10 @@
         <v>530</v>
       </c>
       <c r="B448" t="str">
-        <v>34.25721738442351</v>
+        <v>34.25725211198866</v>
       </c>
       <c r="C448" t="str">
-        <v>134.02091640354143</v>
+        <v>134.0209222699674</v>
       </c>
       <c r="D448" t="str">
         <v>株式会社　塵芥センター大野工場</v>
@@ -17389,6 +17407,24 @@
       </c>
       <c r="F448" t="str">
         <v>大野工場西棟</v>
+      </c>
+      <c r="G448" t="str">
+        <v>087-879-4417</v>
+      </c>
+      <c r="H448" t="str">
+        <v>月火水木金土日</v>
+      </c>
+      <c r="I448" t="str">
+        <v>8:00</v>
+      </c>
+      <c r="J448" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="K448" t="str">
+        <v/>
+      </c>
+      <c r="L448" t="str">
+        <v/>
       </c>
     </row>
     <row r="449">
@@ -17396,19 +17432,37 @@
         <v>531</v>
       </c>
       <c r="B449" t="str">
-        <v>34.30282890519453</v>
+        <v>34.348353199196126</v>
       </c>
       <c r="C449" t="str">
-        <v>134.01606846447982</v>
+        <v>134.04842386033897</v>
       </c>
       <c r="D449" t="str">
-        <v>メリーＧＯランド高松園</v>
+        <v>第一生命保険株式会社　東四国支社</v>
       </c>
       <c r="E449" t="str">
-        <v>高松市成合町796-1</v>
+        <v>高松市寿町二丁目1-1　高松第一生命ビル新館9F</v>
       </c>
       <c r="F449" t="str">
-        <v>玄関</v>
+        <v>第一生命ビル新館9F</v>
+      </c>
+      <c r="G449" t="str">
+        <v>087-851-0101</v>
+      </c>
+      <c r="H449" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I449" t="str">
+        <v>9:00</v>
+      </c>
+      <c r="J449" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="K449" t="str">
+        <v>年末年始を除く</v>
+      </c>
+      <c r="L449" t="str">
+        <v/>
       </c>
     </row>
     <row r="450">
@@ -17416,19 +17470,37 @@
         <v>532</v>
       </c>
       <c r="B450" t="str">
-        <v>34.349488463445255</v>
+        <v>34.302855244513026</v>
       </c>
       <c r="C450" t="str">
-        <v>134.0677619884994</v>
+        <v>134.01606673218845</v>
       </c>
       <c r="D450" t="str">
-        <v>葵機工株式会社</v>
+        <v>メリーＧＯランド高松園</v>
       </c>
       <c r="E450" t="str">
-        <v>高松市朝日町三丁目7-5</v>
+        <v>高松市成合町796-1</v>
       </c>
       <c r="F450" t="str">
-        <v>事務所内</v>
+        <v>玄関</v>
+      </c>
+      <c r="G450" t="str">
+        <v>087-886-6669</v>
+      </c>
+      <c r="H450" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I450" t="str">
+        <v>8:00</v>
+      </c>
+      <c r="J450" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="K450" t="str">
+        <v/>
+      </c>
+      <c r="L450" t="str">
+        <v/>
       </c>
     </row>
     <row r="451">
@@ -17436,19 +17508,37 @@
         <v>533</v>
       </c>
       <c r="B451" t="str">
-        <v>34.29298636055101</v>
+        <v>34.34952142893175</v>
       </c>
       <c r="C451" t="str">
-        <v>134.0352272515721</v>
+        <v>134.0678608360094</v>
       </c>
       <c r="D451" t="str">
-        <v>幼保連携型認定こども園　すまいる</v>
+        <v>葵機工株式会社</v>
       </c>
       <c r="E451" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市朝日町三丁目7-5</v>
       </c>
       <c r="F451" t="str">
-        <v>2歳児保育室前</v>
+        <v>事務所内</v>
+      </c>
+      <c r="G451" t="str">
+        <v>087-822-5025</v>
+      </c>
+      <c r="H451" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I451" t="str">
+        <v>8:30</v>
+      </c>
+      <c r="J451" t="str">
+        <v>17:30</v>
+      </c>
+      <c r="K451" t="str">
+        <v/>
+      </c>
+      <c r="L451" t="str">
+        <v/>
       </c>
     </row>
     <row r="452">
@@ -17456,19 +17546,37 @@
         <v>534</v>
       </c>
       <c r="B452" t="str">
-        <v>34.285054991707625</v>
+        <v>34.292943471633734</v>
       </c>
       <c r="C452" t="str">
-        <v>134.11053304459136</v>
+        <v>134.03524753418628</v>
       </c>
       <c r="D452" t="str">
-        <v>社会福祉法人みどり福祉会　若葉保育園</v>
+        <v>幼保連携型認定こども園　すまいる</v>
       </c>
       <c r="E452" t="str">
-        <v>高松市亀田南町108-2</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F452" t="str">
-        <v>玄関</v>
+        <v>2歳児保育室前</v>
+      </c>
+      <c r="G452" t="str">
+        <v>087-802-3838</v>
+      </c>
+      <c r="H452" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I452" t="str">
+        <v>7:30</v>
+      </c>
+      <c r="J452" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="K452" t="str">
+        <v/>
+      </c>
+      <c r="L452" t="str">
+        <v/>
       </c>
     </row>
     <row r="453">
@@ -17476,19 +17584,37 @@
         <v>535</v>
       </c>
       <c r="B453" t="str">
-        <v>34.22914370686591</v>
+        <v>34.285074840005706</v>
       </c>
       <c r="C453" t="str">
-        <v>133.97911778574831</v>
+        <v>134.11045772645753</v>
       </c>
       <c r="D453" t="str">
-        <v>シンコユニ株式会社</v>
+        <v>社会福祉法人みどり福祉会　若葉保育園</v>
       </c>
       <c r="E453" t="str">
-        <v>綾歌郡綾川町千疋4343</v>
+        <v>高松市亀田南町108-2</v>
       </c>
       <c r="F453" t="str">
-        <v>事務所受付</v>
+        <v>玄関</v>
+      </c>
+      <c r="G453" t="str">
+        <v>087-847-7932</v>
+      </c>
+      <c r="H453" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="I453" t="str">
+        <v>7:00</v>
+      </c>
+      <c r="J453" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="K453" t="str">
+        <v>7:00～18:00(平日)、8:00～16:00(土曜日)</v>
+      </c>
+      <c r="L453" t="str">
+        <v/>
       </c>
     </row>
     <row r="454">
@@ -17496,24 +17622,112 @@
         <v>536</v>
       </c>
       <c r="B454" t="str">
-        <v>34.35483292290631</v>
+        <v>34.229138810454444</v>
       </c>
       <c r="C454" t="str">
-        <v>134.0657832132697</v>
+        <v>133.979075520148</v>
       </c>
       <c r="D454" t="str">
+        <v>シンコユニ株式会社</v>
+      </c>
+      <c r="E454" t="str">
+        <v>綾歌郡綾川町千疋4343</v>
+      </c>
+      <c r="F454" t="str">
+        <v>事務所受付</v>
+      </c>
+      <c r="G454" t="str">
+        <v>087-877-1000</v>
+      </c>
+      <c r="H454" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I454" t="str">
+        <v>8:30</v>
+      </c>
+      <c r="J454" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="K454" t="str">
+        <v/>
+      </c>
+      <c r="L454" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>537</v>
+      </c>
+      <c r="B455" t="str">
+        <v>34.35483675930155</v>
+      </c>
+      <c r="C455" t="str">
+        <v>134.06576769927653</v>
+      </c>
+      <c r="D455" t="str">
         <v>株式会社　三和テスコ</v>
       </c>
-      <c r="E454" t="str">
+      <c r="E455" t="str">
         <v>高松市朝日町四丁目11番67号</v>
       </c>
-      <c r="F454" t="str">
+      <c r="F455" t="str">
         <v>事務所</v>
+      </c>
+      <c r="G455" t="str">
+        <v>087-821-4431</v>
+      </c>
+      <c r="H455" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I455" t="str">
+        <v>8:15</v>
+      </c>
+      <c r="J455" t="str">
+        <v>17:15</v>
+      </c>
+      <c r="K455" t="str">
+        <v/>
+      </c>
+      <c r="L455" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>538</v>
+      </c>
+      <c r="B456" t="str">
+        <v>34.30874471895039</v>
+      </c>
+      <c r="C456" t="str">
+        <v>134.03986617070632</v>
+      </c>
+      <c r="D456" t="str">
+        <v>OZディたかまつ</v>
+      </c>
+      <c r="E456" t="str">
+        <v>高松市太田下町2167-1</v>
+      </c>
+      <c r="F456" t="str">
+        <v>キッチンスペース</v>
+      </c>
+      <c r="G456" t="str">
+        <v>087-880-5605</v>
+      </c>
+      <c r="H456" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I456" t="str">
+        <v>10:00</v>
+      </c>
+      <c r="J456" t="str">
+        <v>17:00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L454"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L456"/>
   </ignoredErrors>
 </worksheet>
 </file>